--- a/src/my_rag/evaluations/results/rag_evaluations_with_reank_embedder_nvidia_NV-Embed-v2_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_HuggingFace QA Dataset.xlsx
+++ b/src/my_rag/evaluations/results/rag_evaluations_with_reank_embedder_nvidia_NV-Embed-v2_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_HuggingFace QA Dataset.xlsx
@@ -480,15 +480,14 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>Based on the context provided, here are the steps for a user to claim authorship of a paper on the Hugging Face Hub:
-1. The Hub attempts to automatically match papers to users based on their email. If this automatic matching doesn't work, the user can manually claim authorship.
-2. The user should go to the Paper page for their paper on the Hugging Face Hub.
-3. On the Paper page, the user should click on their name.
-4. After clicking their name, they should select "claim authorship".
-5. This will redirect the user to their paper settings page.
-6. On the paper settings page, the user can confirm the authorship request.
-7. The Hugging Face admin team will then validate the request.
-8. Once confirmed by the admin team, the Paper page will show as verified.
-The context also mentions that users can control which of their verified papers show on their profile by going to their Papers settings page and using the "Show on profile" checkbox for each paper.</t>
+1. Go to the Paper page for the paper you authored.
+2. Click on your name on the Paper page.
+3. Click "claim authorship". 
+4. This will redirect you to your paper settings.
+5. Confirm the authorship request in the settings.
+6. The Hugging Face admin team will then validate your request.
+7. Once confirmed, the Paper page will show as verified.
+The context also mentions that the Hub attempts to automatically match papers to users based on their email. So in some cases, papers may already be linked to a user's account automatically. Users can check their Papers in settings to see which ones are already verified and linked to their profile.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -526,16 +525,16 @@
 from accelerate import Accelerator
 accelerator = Accelerator(mixed_precision='fp16')
 ```
-This will enable mixed precision training using 16-bit floating point (FP16).
-If you want to use bfloat16 instead, you can do:
+This will enable fp16 mixed precision training.
+For BF16 mixed precision, you would use:
 ```python 
 accelerator = Accelerator(mixed_precision='bf16')
 ```
-The options for `mixed_precision` are:
-- `'no'`: No mixed precision (default)
-- `'fp16'`: 16-bit floating point mixed precision  
-- `'bf16'`: bfloat16 mixed precision
-So by explicitly specifying `mixed_precision='fp16'` or `mixed_precision='bf16'`, you can force mixed precision training when initializing the Accelerator.</t>
+The key points are:
+1. Use the `mixed_precision` parameter when initializing Accelerator
+2. Pass 'fp16' for 16-bit floating point mixed precision
+3. Pass 'bf16' for bfloat16 mixed precision
+This allows you to explicitly set the mixed precision mode when creating the Accelerator object, rather than relying on environment detection or other defaults.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -571,17 +570,17 @@
           <t>Based on the context provided, here are the steps to install the Hugging Face Unity API in a Unity project:
 1. Open your Unity project
 2. Go to Window -&gt; Package Manager
-3. Click the + button and select "Add Package from git URL"
+3. Click the "+" button and select "Add Package from git URL"
 4. Enter the following URL: https://github.com/huggingface/unity-api.git
-5. Once installed, the Unity API wizard should pop up automatically. If it doesn't, go to Window -&gt; Hugging Face API Wizard to open it.
+5. Once installed, the Unity API wizard should pop up automatically. If it doesn't, you can access it by going to Window -&gt; Hugging Face API Wizard
 6. In the API Wizard:
    - Enter your Hugging Face API key (can be created in your Hugging Face account settings)
    - Test the API key by clicking "Test API key" 
-   - Optionally change model endpoints if desired
-   - Configure any advanced settings if needed
+   - Optionally change model endpoints
+   - Configure any advanced settings if desired
    - Click "Install Examples" to see usage examples
-7. Close the API Wizard once setup is complete
-After following these steps, the Hugging Face Unity API will be installed and configured in your Unity project, allowing you to make calls to Hugging Face models from your Unity scripts.</t>
+7. You can now close the API Wizard and start using the Hugging Face Unity API in your project
+The key steps are adding the package via git URL in the Package Manager, then configuring it through the API Wizard that appears after installation. This sets up the API integration in your Unity project.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -615,22 +614,20 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>To run a Gradio Blocks app in reload mode using a Python IDE, you can follow these steps:
-1. Save your Gradio app code in a Python file (e.g. run.py)
-2. Instead of running the file with the regular Python command, use the "gradio" command in the terminal:
+1. Save your Gradio app code in a Python file, e.g. `run.py`
+2. Instead of running the file with `python run.py`, use the `gradio` command:
    ```
    gradio run.py
    ```
-3. This will run the app in reload mode, where Gradio will watch for changes to the file and automatically reload the app when the file is modified.
+3. This will run the app in reload mode, where Gradio will watch for changes to the file and automatically reload the app when changes are detected.
 Key points:
-- Use the "gradio" command instead of "python" to run the file
-- Gradio will watch the directory and reload when changes are detected
-- By default, it looks for a Blocks/Interface demo called "demo" in your code
-- If your demo has a different name, you can specify it as the second argument:
-  ```
-  gradio run.py my_demo
-  ```
-- You can pass command line arguments to your app as well
-This reload mode allows you to quickly iterate on your Gradio app without having to manually stop and restart the server each time you make changes.</t>
+- Use the `gradio` command instead of `python` to run the file
+- Gradio will watch the directory containing the file for changes
+- The app will automatically reload when the file is modified
+- By default, Gradio looks for a demo called `demo` in your code
+- If your demo has a different name, you can specify it: `gradio run.py my_demo`
+- You can pass command line arguments as well, e.g. `gradio run.py --arg1 value1`
+This reload mode allows you to make changes to your Gradio app code and see the results immediately without having to manually stop and restart the app each time.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -697,10 +694,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Based on the context provided, the "duorc" dataset has 6 splits. Specifically, the response from the /splits endpoint for the duorc dataset shows:
-- 3 splits for the "ParaphraseRC" configuration: train, validation, and test
-- 3 splits for the "SelfRC" configuration: train, validation, and test
-So in total, there are 6 splits across the two configurations of the duorc dataset.</t>
+          <t>Based on the context provided, the "duorc" dataset has 6 splits. Specifically, the example JSON response shows:
+- 3 splits for the "ParaphraseRC" configuration:
+  - train
+  - validation 
+  - test
+- 3 splits for the "SelfRC" configuration:
+  - train
+  - validation
+  - test
+So in total, there are 6 splits across the two configurations of the "duorc" dataset.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -777,7 +780,7 @@
         <is>
           <t>Based on the context provided, the TensorFlow API function used to load a saved tensor file is:
 safetensors.tensorflow.load_file
-This function is part of the safetensors library and allows loading tensor data that was previously saved using the safetensors format.</t>
+This function is part of the safetensors library and allows loading tensor data that was previously saved using the safetensors format in TensorFlow.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -810,7 +813,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>According to the context provided, SqueezeBERT uses grouped convolutions instead of fully-connected layers for the Q, K, V and FFN layers. Specifically, the overview states:
+          <t>According to the context provided, SqueezeBERT uses grouped convolutions instead of fully-connected layers for the Q, K, V and FFN layers. Specifically, the overview section states:
 "The key difference between the BERT architecture and the SqueezeBERT architecture is that SqueezeBERT uses [grouped convolutions](https://blog.yani.io/filter-group-tutorial) instead of fully-connected layers for the Q, K, V and FFN layers."</t>
         </is>
       </c>
@@ -847,10 +850,7 @@
           <t>Based on the context provided, the `tokenizers-linux-x64-musl` binary is designed for the x86_64-unknown-linux-musl architecture.
 Specifically, the context states:
 "This is the **x86_64-unknown-linux-musl** binary for `tokenizers`"
-So this binary is compiled for:
-- x86_64 (64-bit x86) architecture
-- Linux operating system 
-- Using the musl C library</t>
+So this binary is compiled for 64-bit x86 (x86_64) Linux systems using the musl C library.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -923,7 +923,7 @@
           <t>Based on the context provided, the two parameter-reduction techniques proposed in the ALBERT model are:
 1. Splitting the embedding matrix into two smaller matrices.
 2. Using repeating layers split among groups.
-The context states that these techniques were introduced to "lower memory consumption and increase the training speed of BERT".</t>
+The context states that ALBERT presents "two parameter-reduction techniques to lower memory consumption and increase the training speed of BERT" and then lists these two specific techniques.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -957,16 +957,10 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>Based on the context provided, Gradio can be used for the following:
-1. Create a demo for your machine learning model - With just a few lines of Python code, you can generate a demo for your ML model using Gradio's library of pre-built components.
-2. Share your machine learning model with others - Using the share=True parameter in the launch method, you can generate a share link to send to anyone.
-3. Debug your model - One advantage of a Gradio demo is being able to test your model with real data which you can change and observe the model's predictions change in real time, helping you debug your model.
-4. Launch demos from standard Python IDEs, Google Colab notebooks, or Jupyter notebooks.
-5. Create demos for multiple types of data and models, not just NLP - Gradio supplies developers with components for many data types.
-6. Build demos with multiple inputs and outputs.
-7. Add state for data persistence in demos.
-8. Add username/password authentication to demos.
-9. Load models from Hugging Face's model hub or Spaces.
-So in summary, Gradio allows you to easily create interactive web demos for machine learning models to share, debug, and test them. It provides flexibility in terms of model types, inputs/outputs, and deployment options.</t>
+1. Create a demo for your machine learning model. The context states "With a few lines of python code you can generate a demo for your ML model using our library of pre-built components."
+2. Share your machine learning model with others. The context mentions "Using the &lt;code&gt;share=True&lt;/code&gt; parameter in the launch method, you can generate a share link to send to anyone."
+3. Debug your model. The context notes "One advantage of a gradio demo is being able to test your model with real data which you can change and observe the model's predictions change in real time, helping you debug your model."
+Gradio allows you to easily create interactive web interfaces for machine learning models to demo, share, and debug them.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1003,7 +997,13 @@
 ```
 pip install -r requirements.txt
 ```
-This command will install the specific version of 🤗 Transformers and any other dependencies required for that particular research project, as specified in the requirements.txt file in that folder.</t>
+The context specifically states:
+"To use any of them, just run the command
+```
+pip install -r requirements.txt
+```
+inside the folder of your choice."
+This command will install the specific requirements listed in the requirements.txt file for that particular research project.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1036,13 +1036,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>According to the context, PyTorch provides the `torchrun` command line module to run a script on multiple GPUs. Specifically, the context states:
+          <t>According to the context, PyTorch provides the `torchrun` command line module to run a script on multiple GPUs. Specifically, the passage states:
 "Lastly, to run the script PyTorch has a convenient `torchrun` command line module that can help. Just pass in the number of nodes it should use as well as the script to run and you are set:
 ```bash
 torchrun --nproc_per_node=2 --nnodes=1 example_script.py
 ```
 The above will run the training script on two GPUs that live on a single machine and this is the barebones for performing only distributed training with PyTorch."
-So `torchrun` is the command line module provided by PyTorch to easily run a script on multiple GPUs for distributed training.</t>
+So `torchrun` is the command line module provided by PyTorch to run a script on multiple GPUs for distributed training.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1080,7 +1080,7 @@
 2. Sequence-to-sequence models
 Specifically, the context states:
 "Retrieval-augmented generation ("RAG") models combine the powers of pretrained dense retrieval (DPR) and sequence-to-sequence models. RAG models retrieve documents, pass them to a seq2seq model, then marginalize to generate outputs."
-So RAG models integrate a retrieval component (DPR) with a generative seq2seq model to produce outputs.</t>
+So RAG models use a retrieval component to fetch relevant documents, and then use a seq2seq model to generate outputs based on those retrieved documents.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1113,10 +1113,10 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>According to the context, the more secure file format recommended for saving and storing PyTorch model weights is the `.safetensors` format.
+          <t>According to the context, the more secure file format recommended for saving and storing PyTorch model weights is `.safetensors`.
 Specifically, the context states:
 "To save and store your model weights in the more secure `safetensor` format, we recommend converting your weights to `.safetensors`."
-So PyTorch model weights are commonly saved as `.bin` files, but can be converted to the more secure `.safetensors` format.</t>
+So PyTorch model weights are commonly saved as `.bin` files, but `.safetensors` is recommended as a more secure alternative format.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1152,13 +1152,13 @@
           <t>Based on the context provided, to add custom Python dependencies for Inference Endpoints, you should add a `requirements.txt` file to your model repository on the Hugging Face Hub.
 Specifically, the context states:
 "To add custom dependencies, add a `requirements.txt` [file](https://huggingface.co/philschmid/distilbert-onnx-banking77/blob/main/requirements.txt) with the Python dependencies you want to install in your model repository on the Hugging Face Hub. When your Endpoint and Image artifacts are created, Inference Endpoints checks if the model repository contains a `requirements.txt ` file and installs the dependencies listed within."
-The `requirements.txt` file should list the Python dependencies you want to install, for example:
+The `requirements.txt` file should list the Python dependencies you want to install, one per line. The context provides an example:
 ```
 optimum[onnxruntime]==1.2.3
 mkl-include
 mkl
 ```
-This allows you to customize the dependencies for your inference pipeline or install specific versions of libraries needed for your model.</t>
+So in summary, adding a `requirements.txt` file to your model repository is the correct way to specify custom Python dependencies for Inference Endpoints.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1195,11 +1195,11 @@
 ```bash
 pip install --upgrade-strategy eager optimum["openvino"]
 ```
-The key points are:
-1. Use pip to install
-2. Include the --upgrade-strategy eager option to ensure the latest version is installed
-3. Install optimum["openvino"] to get Optimum with OpenVINO support
-This command will install the latest version of Optimum Intel with OpenVINO integration.</t>
+The key details are:
+- Use pip to install
+- Include the `--upgrade-strategy eager` option to ensure the latest version is installed
+- The package name is `optimum["openvino"]`
+This will install the latest version of Optimum with OpenVINO integration.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1234,7 +1234,7 @@
         <is>
           <t>Based on the context provided, the command to upload a spaCy pipeline to the Hugging Face Hub is:
 ```
-python -m spacy huggingface-hub push &lt;pipeline_package_filename&gt;
+python -m spacy huggingface-hub push &lt;pipeline-package-filename&gt;
 ```
 Specifically, the example given in the context shows:
 ```bash
@@ -1280,8 +1280,8 @@
 This command uses the `run.sh` script with the following options:
 - `--stage 15`: Specifies the stage for uploading
 - `--skip_upload_hf false`: Enables uploading to Hugging Face (does not skip it)
-- `--hf_repo username/model_repo`: Specifies the Hugging Face repository to upload to, where you would replace "username" with your actual username and "model_repo" with your desired repository name
-This allows you to easily upload an ESPnet model to a specified Hugging Face repository.</t>
+- `--hf_repo username/model_repo`: Specifies the Hugging Face repository to upload to, where you would replace "username" with your Hugging Face username and "model_repo" with your desired repository name
+This allows you to easily upload an ESPnet model to a Hugging Face repository directly from the ESPnet training pipeline.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1316,7 +1316,7 @@
         <is>
           <t>Based on the context provided, the default checkpoint used by the sentiment analysis pipeline in the Transformers library is:
 distilbert-base-uncased-finetuned-sst-2-english
-The relevant excerpt states:
+Specifically, the context states:
 "Here, the checkpoint used by default for the sentiment analysis pipeline is distilbert-base-uncased-finetuned-sst-2-english."</t>
         </is>
       </c>
@@ -1350,10 +1350,9 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>According to the context provided, for Local Attention in the LongT5 model:
-The default context window size (referred to as "r" in the description) is 127 tokens to the left and right of a given token. Specifically, the context states:
-"For *Local Attention*, the sparse sliding-window local attention operation allows a given token to attend only `r` tokens to the left and right of it (with `r=127` by default)."
-So the default local attention window size is 127 tokens on each side of a given token.</t>
+          <t>According to the usage tips in the context, for Local Attention in the LongT5 model:
+The sparse sliding-window local attention operation allows a given token to attend only `r` tokens to the left and right of it, with `r=127` by default.
+So the default context window size for Local Attention is 127 tokens to the left and right, for a total window size of 255 tokens (127 left + 1 center + 127 right).</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1387,7 +1386,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t>Based on the context provided, the default repository type created by the `create_repo` function on Hugging Face Hub is a model repository.
-Specifically, the context states:
+Specifically, the documentation states:
 "By default, [`create_repo`] creates a model repository. But you can use the `repo_type` parameter to specify another repository type."
 So unless otherwise specified using the `repo_type` parameter, `create_repo` will create a model repository by default.</t>
         </is>
@@ -1496,9 +1495,14 @@
           <t>Based on the context provided, the file size limit for syncing to Hugging Face Spaces without using Git-LFS is 10MB.
 Specifically, the context states:
 "Remember that for files larger than 10MB, Spaces requires Git-LFS. If you don't want to use Git-LFS, you may need to review your files and check your history."
-It also provides an example GitHub Action to check file sizes, with the comment:
-"filesizelimit: 10485760 # this is 10MB so we can sync to HF Spaces"
-So the file size limit for syncing to HF Spaces without Git-LFS is 10MB. Files larger than 10MB require using Git Large File Storage (Git-LFS).</t>
+It also provides an example GitHub Action that checks file sizes with a 10MB limit:
+```yaml
+- name: Check large files
+  uses: ActionsDesk/lfs-warning@v2.0
+  with:
+    filesizelimit: 10485760 # this is 10MB so we can sync to HF Spaces
+```
+So the file size limit for syncing to Hugging Face Spaces without Git-LFS is 10MB. Files larger than 10MB require using Git Large File Storage (Git-LFS).</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1538,7 +1542,7 @@
 The task involves labeling each token in a sentence with one class for each entity type, and another class for tokens that do not belong to any entity. 
 Specifically, the context states:
 "The goal of this task is to find the entities in a piece of text, such as person, location, or organization. This task is formulated as labelling each token with one class for each entity, and another class for tokens that have no entity."
-So in summary, NER aims to identify and categorize key entities mentioned in text by classifying individual tokens into predefined entity categories or as non-entities.</t>
+So in summary, NER aims to identify and categorize key entities mentioned in text by assigning appropriate entity labels to the relevant tokens.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1571,7 +1575,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>According to the context provided, the latest task added to Hugging Face AutoTrain for Computer Vision is Image Classification. Specifically, the passage states:
+          <t>According to the context provided, the latest task added to Hugging Face AutoTrain for Computer Vision is Image Classification. Specifically, the article states:
 "We've been expanding the number of tasks that we support, and we're proud to announce that you can now use AutoTrain for Computer Vision! Image Classification is the latest task we've added, with more on the way."</t>
         </is>
       </c>
@@ -1643,7 +1647,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>According to the context provided, in Transformers version 4.18.0 and later, model checkpoints that are larger than 10GB are automatically sharded into smaller pieces. Specifically, the context states:
+          <t>According to the context, in Transformers version 4.18.0 and later, model checkpoints that are larger than 10GB are automatically sharded into smaller pieces. Specifically, the context states:
 "Since version 4.18.0, model checkpoints that end up taking more than 10GB of space are automatically sharded in smaller pieces."
 So the maximum size before automatic sharding is 10GB.</t>
         </is>
@@ -1678,10 +1682,8 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Based on the context provided, the most popular vision transformer model on the Hugging Face Model Hub for image classification is google/vit-base-patch16-224. 
-Specifically, the context states:
-"At the time of writing, the most popular one is `google/vit-base-patch16-224`, which has been trained on ImageNet images at a resolution of 224x224 pixels. We will use this model for our demo."
-So google/vit-base-patch16-224 is identified as the most popular vision transformer model for image classification on the Hugging Face Model Hub.</t>
+          <t>Based on the context provided, the most popular vision transformer model on the Hugging Face Model Hub for image classification is google/vit-base-patch16-224. Specifically, the context states:
+"At the time of writing, the most popular one is `google/vit-base-patch16-224`, which has been trained on ImageNet images at a resolution of 224x224 pixels. We will use this model for our demo."</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1714,7 +1716,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>According to the context provided, the large multimodal model that can solve image-text tasks and is based on Flamingo is called IDEFICS.
+          <t>Based on the context provided, the large multimodal model that can solve image-text tasks and is based on Flamingo is called IDEFICS.
 Specifically, the context states:
 "In this guide, we will illustrate how you can solve image-text tasks with a large multimodal model called IDEFICS.
 IDEFICS is an open-access vision and language model based on Flamingo, a state-of-the-art visual language model initially developed by DeepMind."</t>
@@ -1750,8 +1752,8 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>According to the context, the new library introduced by Hugging Face for hosting scikit-learn models is called Skops.
-Specifically, the introduction states:
+          <t>The new library introduced by Hugging Face for hosting scikit-learn models is called Skops.
+The context states:
 "We are thrilled to introduce you to our new library: Skops! With Skops, you can host your scikit-learn models on the Hugging Face Hub, create model cards for model documentation and collaborate with others."</t>
         </is>
       </c>
@@ -1786,10 +1788,8 @@
       <c r="C36" t="inlineStr">
         <is>
           <t>Based on the context provided, the open-source library created by Hugging Face to simplify Transformer acceleration is called Optimum.
-Specifically, the passage states:
-"Enter the Optimum Intel open source library! Let's take a deeper look at it.
-Optimum is an open-source library created by Hugging Face to simplify Transformer acceleration across a growing range of training and inference devices."
-So Optimum is the name of the open-source library created by Hugging Face to simplify Transformer acceleration.</t>
+Specifically, the context states:
+"Optimum is an open-source library created by Hugging Face to simplify Transformer acceleration across a growing range of training and inference devices."</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1826,10 +1826,11 @@
 The pretraining objective of the context network is a contrastive task. The model has to predict the true quantized speech representation of the masked prediction from a set of false ones, encouraging the model to find the most similar context vector and quantized speech unit (the target label).
 So in summary:
 - It is a contrastive task
-- The model has to predict the true quantized speech representation from a set of options
+- The model has to predict the true quantized speech representation for masked inputs
+- It chooses from a set of true and false options 
 - This encourages the model to find the most similar context vector and quantized speech unit
-- The quantized speech unit acts as the target label
-The goal is for the model to learn to match the masked input with its correct corresponding speech representation, while distinguishing it from incorrect options.</t>
+- The quantized speech unit is the target label
+The goal is for the model to learn to match the masked input to its correct corresponding speech representation, distinguishing it from incorrect options.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1866,9 +1867,9 @@
 1. To provide state-of-the-art pretrained diffusion models across multiple modalities.
 2. To serve as a modular toolbox for both inference and training of diffusion models.
 3. To be a natural extension of PyTorch, following many of PyTorch's design principles.
-4. To offer a lightweight package with simple, self-explanatory code that is usable across different platforms and accelerators.
-5. To allow easy customization and tweaking of models and pipelines for research and ideation.
-The library aims to be user-friendly, flexible, and contributor-friendly while maintaining a focus on usability and simplicity over complex optimizations or abstractions.</t>
+4. To offer a lightweight package with few required dependencies that can be easily added as a dependency to other packages.
+5. To prioritize usability across different platforms and accelerators without requiring complex installations.
+The library aims to be user-friendly, customizable, and contributor-friendly while maintaining a balance between simplicity and flexibility in its design and implementation.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1901,14 +1902,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Based on the context provided, Fully Sharded Data Parallel (FSDP) has the following key purposes in distributed training:
-1. It allows training of very large pretrained models up to 1 trillion parameters.
-2. It achieves this by sharding (distributing) the model parameters, gradients, and optimizer states across multiple data parallel processes.
-3. It can offload sharded model parameters to CPU to reduce GPU memory usage.
-4. The memory efficiency of FSDP allows scaling training to larger batch sizes or model sizes.
-5. It is designed for distributed training scenarios, allowing the model to be split across multiple GPUs or machines.
-6. It aims to enable training of models that would be too large to fit on a single GPU.
-The key benefit is that FSDP allows training of extremely large models by distributing the model components across multiple devices, rather than requiring the full model to fit on each device. This overcomes memory limitations and enables scaling to larger model sizes.</t>
+          <t>Based on the context provided, the key purposes of Fully Sharded Data Parallel (FSDP) in distributed training are:
+1. To enable distributed training of very large pretrained models up to 1 trillion parameters.
+2. To improve memory efficiency by sharding (splitting up) the model parameters, gradients, and optimizer states across multiple data parallel processes.
+3. To allow offloading of sharded model parameters to CPU memory.
+4. To enable scaling training to larger batch sizes or model sizes that would not fit on a single GPU.
+Specifically, the context states:
+"Fully sharded data parallel (FSDP) is developed for distributed training of large pretrained models up to 1T parameters. FSDP achieves this by sharding the model parameters, gradients, and optimizer states across data parallel processes and it can also offload sharded model parameters to a CPU. The memory efficiency afforded by FSDP allows you to scale training to larger batch or model sizes."
+So in summary, FSDP is a technique to distribute very large models across multiple GPUs/processes in a memory-efficient way, enabling training of models that would be too large to fit on a single GPU.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1945,8 +1946,8 @@
 1. To personalize text-to-image models like Stable Diffusion by learning new text embeddings from a few example images.
 2. It allows teaching new concepts to models like Stable Diffusion using just 3-5 images, enabling personalization on your own images.
 3. The output of Textual Inversion training is an extremely small file (a few KBs) containing new text embeddings that can be loaded into the text encoder of the model.
-4. It provides a way to customize and expand the vocabulary and concepts that text-to-image models can understand and generate, based on a small set of user-provided example images.
-In essence, Textual Inversion enables personalizing and extending the capabilities of large text-to-image models in a data-efficient way, using only a few examples to teach new visual concepts that can then be invoked through text prompts.</t>
+4. It provides a way to customize and extend the capabilities of existing text-to-image models without having to retrain the entire model.
+In essence, Textual Inversion is a technique for efficiently adapting text-to-image models to recognize and generate new concepts or styles based on a small set of example images, resulting in a compact set of learned embeddings that can personalize the model's outputs.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1984,7 +1985,7 @@
 2. Aggregate any metric over samples and show them in panels in a customizable and searchable dashboard.
 Specifically, the context states:
 "Weights and Biases (W&amp;B) allows data scientists and machine learning scientists to track their machine learning experiments at every stage, from training to production. Any metric can be aggregated over samples and shown in panels in a customizable and searchable dashboard, like below:"
-So in summary, W&amp;B provides experiment tracking and visualization capabilities for machine learning workflows, allowing researchers to monitor and analyze their experiments throughout the entire process.</t>
+So the key purposes are experiment tracking and metric visualization/aggregation throughout the machine learning workflow.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2059,10 +2060,12 @@
 2. To overcome limitations of existing subject-driven text-to-image models, specifically:
    - Lengthy fine-tuning requirements
    - Difficulties preserving subject fidelity
-3. To provide a multimodal encoder that is pre-trained to produce visual representations aligned with text.
-4. To enable efficient fine-tuning for customized subjects, with up to 20x speedup compared to previous methods like DreamBooth.
-5. To allow flexible combination with existing techniques like ControlNet and prompt-to-prompt for novel subject-driven generation and editing applications.
-In summary, BLIP-Diffusion aims to improve subject-driven text-to-image generation by enabling zero-shot capabilities, faster fine-tuning, better subject fidelity, and compatibility with other control/editing techniques.</t>
+3. To introduce a new multimodal encoder that is pre-trained to provide subject representation. This encoder:
+   - Is pre-trained following BLIP-2 to produce visual representation aligned with text
+   - Enables a diffusion model to leverage visual representations to generate new subject renditions
+4. To allow for zero-shot subject-driven generation and efficient fine-tuning for customized subjects (up to 20x speedup compared to previous methods like DreamBooth).
+5. To be flexibly combined with existing techniques like ControlNet and prompt-to-prompt to enable novel subject-driven generation and editing applications.
+In summary, BLIP-Diffusion aims to improve subject-driven text-to-image generation by introducing a pre-trained multimodal encoder for better subject representation, enabling zero-shot capabilities, and allowing for more efficient fine-tuning and flexible integration with other techniques.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2097,8 +2100,7 @@
         <is>
           <t>Based on the context provided, the Safety Checker in the Diffusers library serves the following purpose:
 It checks and compares the class probability of a set of hard-coded harmful concepts in the embedding space against an image after it has been generated. The harmful concepts are intentionally hidden to prevent reverse engineering of the checker.
-Specifically, the Safety Checker aims to detect potentially inappropriate or harmful content in generated images as a safety measure. It does this by analyzing the generated image and comparing it against predefined harmful concepts, without revealing what those exact concepts are (to prevent circumvention of the safety check).
-This is part of the library's efforts to encourage safety in the deployment of diffusion models and mitigate potential misuse or generation of inappropriate content.</t>
+Specifically, the Safety Checker aims to detect potentially harmful or inappropriate content in generated images as a safety measure. It does this by analyzing the generated image and comparing it against predefined harmful concepts, helping to filter out potentially problematic outputs.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2131,18 +2133,18 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Based on the context provided, the purpose of the `gradio.Blocks` API in Gradio is to:
-1. Provide a low-level API that allows full control over the data flows and layout of a Gradio application.
-2. Enable building more complex, multi-step applications compared to the simpler `Interface` API.
-3. Allow users to:
-   - Group related demos as multiple tabs in one web application
-   - Customize the layout of the demo, specifying where inputs and outputs are located 
-   - Create multi-step interfaces where the output of one model becomes the input to another
-   - Have more flexible data flows in general
-   - Change component properties or visibility based on user input
-4. Give developers granular control over how components are arranged and interact, using concepts like rows, columns, and tabs.
-5. Provide a way to build web applications by combining markdown, HTML, buttons, and interactive components simply by instantiating objects in Python.
-In summary, `Blocks` is a more flexible and powerful API compared to `Interface`, allowing developers to create more customized and complex Gradio demos and applications.</t>
+          <t>Based on the context provided, the purpose of the `gradio.Blocks` API is to serve as a low-level API that allows developers to have full control over the data flows and layout of their Gradio applications. Specifically:
+1. Blocks is described as a "low-level API that allows you to have full control over the data flows and layout of your application."
+2. It allows developers to build "very complex, multi-step applications" using Blocks (as in "building blocks").
+3. Blocks provides more flexibility compared to the higher-level `Interface` API.
+4. Some key capabilities of Blocks include:
+   - Grouping related demos as multiple tabs in one web application
+   - Changing the layout of the demo, e.g. specifying where inputs and outputs are located 
+   - Creating multi-step interfaces where the output of one model becomes the input to another
+   - Enabling more flexible data flows in general
+   - Changing component properties or visibility based on user input
+5. Blocks allows developers to combine markdown, HTML, buttons, and interactive components by instantiating objects within a `with gradio.Blocks` context.
+So in summary, the `gradio.Blocks` API provides granular control and flexibility for building more complex and customized Gradio demos compared to the simpler `Interface` API. It gives developers full control over the structure, layout and functionality of their Gradio applications.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2175,9 +2177,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Based on the context provided, the purpose of the notebook "How to use DeepSpeed to train models with billions of parameters on Habana Gaudi" is not explicitly stated. The context does not contain any specific information about a notebook with that title or about training on Habana Gaudi processors.
-The context mainly discusses using PyTorch, Accelerate, and Hugging Face Transformers libraries for distributed training and optimizing large language models. It does not mention Habana Gaudi or a specific notebook about using DeepSpeed on that hardware.
-Without more context about the specific notebook in question, I don't have enough information to accurately state its purpose. If you have additional details about this notebook, I'd be happy to try to infer its purpose based on that information.</t>
+          <t>Based on the context provided, I don't have specific information about a notebook titled "How to use DeepSpeed to train models with billions of parameters on Habana Gaudi". The context does not mention this particular notebook or Habana Gaudi processors.
+The context discusses topics related to optimizing deep learning training, including:
+1. Using PyTorch's multi_tensor optimization
+2. Data preloading techniques to improve GPU utilization
+3. DeepSpeed ZeRO for distributed training of large models
+4. Using torch.compile in PyTorch 2.0 for code optimization
+5. Fully Sharded Data Parallel (FSDP) for distributed training of large models
+Without more specific information about the notebook you're asking about, I can't comment on its exact purpose. However, given the title, it likely aims to demonstrate how to use DeepSpeed, a deep learning optimization library, to train very large models (with billions of parameters) on Habana Gaudi AI processors. This would be in line with the general theme of optimizing training for large-scale deep learning models discussed in the provided context.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2213,12 +2220,11 @@
           <t>Based on the context provided, the two-stage model proposed in the paper "Hierarchical Text-Conditional Image Generation with CLIP Latents" consists of:
 1. A prior that generates a CLIP image embedding given a text caption
 2. A decoder that generates an image conditioned on the image embedding
-The purpose of this two-stage approach is to leverage CLIP representations for image generation. Specifically, the paper states that "explicitly generating image representations improves image diversity with minimal loss in photorealism and caption similarity."
-Some key benefits of this approach mentioned in the context are:
-- The decoders can produce variations of an image that preserve its semantics and style, while varying non-essential details absent from the image representation.
-- It enables language-guided image manipulations in a zero-shot fashion, due to the joint embedding space of CLIP.
-- Using diffusion models for the decoder and prior is computationally efficient and produces high-quality samples.
-So in summary, the two-stage model aims to leverage CLIP's robust image-text representations to enable more diverse and controllable image generation, while maintaining quality and semantic fidelity to the text prompts.</t>
+The purpose of this two-stage approach is to leverage CLIP representations for image generation. Specifically:
+- It aims to improve image diversity with minimal loss in photorealism and caption similarity by explicitly generating image representations.
+- The decoders conditioned on image representations can produce variations of an image that preserve its semantics and style, while varying non-essential details absent from the image representation.
+- It enables language-guided image manipulations in a zero-shot fashion, leveraging the joint embedding space of CLIP.
+So in summary, the two-stage model allows for more controlled and diverse image generation by first generating CLIP image embeddings and then decoding those into images, taking advantage of CLIP's robust representations that capture both semantics and style.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2253,12 +2259,12 @@
         <is>
           <t>Based on the context provided, the purpose of the 🧨 Diffusers tutorials is to:
 1. Provide a gentle introduction to diffusion models and generative AI for beginners.
-2. Help users understand the fundamentals of the library, including its core components and how it is meant to be used.
-3. Teach users how to use a pipeline for inference to generate content quickly.
-4. Show users how to deconstruct a pipeline to understand how to use the library as a modular toolbox for building diffusion systems.
+2. Help users understand the library fundamentals, including core components and how Diffusers is meant to be used.
+3. Teach users how to use a pipeline for inference to generate things quickly.
+4. Show how to deconstruct a pipeline to understand how to use the library as a modular toolbox for building diffusion systems.
 5. Prepare users to learn how to train their own diffusion models in subsequent lessons.
 6. Give users the necessary skills to start exploring the library on their own and apply it to their own projects and applications.
-The tutorials are designed to be beginner-friendly and provide a step-by-step approach to learning about diffusion models and using the 🧨 Diffusers library.</t>
+The tutorials are designed to be beginner-friendly and provide a foundation for users to get started with the Diffusers library.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2293,11 +2299,14 @@
         <is>
           <t>Based on the context provided, the main purpose of tokenizers in the NLP pipeline is to translate text into data that can be processed by the model. Specifically:
 1. Tokenizers convert raw text inputs into numerical data that models can process, since models can only work with numbers.
-2. They aim to find the most meaningful and smallest representation of the text for the model.
-3. Tokenizers serve as a core component to bridge between raw text and the numerical inputs required by NLP models.
-4. They handle tasks like splitting text into tokens (words, subwords, characters, etc.), converting tokens to numeric IDs, adding special tokens, and handling things like padding and truncation.
-5. The tokenization process allows models to ingest text data in a format they can understand and perform computations on.
-In essence, tokenizers act as the crucial first step in preparing text data for processing by NLP models, translating human-readable text into machine-readable numerical representations.</t>
+2. They aim to find the most meaningful and smallest representation of the text that makes sense to the model.
+3. Tokenizers serve as a core component that bridges the gap between human-readable text and the numerical inputs required by NLP models.
+4. The tokenization process typically involves:
+   - Splitting text into smaller chunks called tokens (e.g. words, subwords, characters)
+   - Adding any special tokens required by the model
+   - Converting the tokens to numerical IDs using a vocabulary
+5. Tokenizers enable models to process and understand text inputs by converting them into a format suitable for mathematical operations and analysis.
+In summary, tokenizers play the crucial role of transforming raw text into structured numerical data that NLP models can effectively process and learn from.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2330,10 +2339,10 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>According to the context provided, for fp16 data type on an A100 GPU, the recommended multiple for batch size is 64.
+          <t>Based on the context provided, for fp16 data type on an A100 GPU, the recommended multiple for batch size is 64.
 Specifically, the context states:
 "For instance, for fp16 data type a multiple of 8 is recommended, unless it's an A100 GPU, in which case use multiples of 64."
-So for an A100 GPU using fp16, the batch size should ideally be a multiple of 64 for optimal performance.</t>
+So for an A100 GPU using fp16, the batch size should be a multiple of 64 for optimal performance.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2367,7 +2376,8 @@
       <c r="C51" t="inlineStr">
         <is>
           <t>According to the context, the CLIPSeg model uses images with a resolution of 352 x 352 pixels. Specifically, the article states:
-"Currently, CLIPSeg still has its limitations. For example, the model uses images of 352 x 352 pixels, so the output is quite low-resolution."</t>
+"Currently, CLIPSeg still has its limitations. For example, the model uses images of 352 x 352 pixels, so the output is quite low-resolution."
+So the input and output resolution of the CLIPSeg model is 352 x 352 pixels.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2400,13 +2410,13 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, the Nyströmformer approximates self-attention with O(n) time and memory complexity, where n is the length of the input sequence. Specifically:
+          <t>Based on the information provided in the context, the Nyströmformer approximates self-attention with linear O(n) time and memory complexity, where n is the length of the input sequence. Specifically:
 1. The introduction states that Nyströmformer "approximates standard self-attention with O(n) complexity".
-2. It mentions that standard self-attention has O(n^2) complexity, but Nyströmformer improves this to linear O(n) complexity.
-3. The key idea is to use the Nyström method to approximate the softmax matrix in self-attention, avoiding the need to compute the full QK^T product which would be O(n^2).
-4. By sampling m landmarks from the queries and keys (where m &lt;&lt; n), and using those to construct approximation matrices, the method achieves linear complexity.
-5. The paper found that using just 32 or 64 landmarks (m) produced competitive performance even for long sequences of length 4096 or 8192.
-So in summary, by using the Nyström approximation method, Nyströmformer reduces the time and memory complexity of self-attention from quadratic O(n^2) to linear O(n). This allows it to scale more efficiently to longer input sequences compared to standard Transformers.</t>
+2. It mentions that Nyströmformer improves upon the O(n^2) complexity of standard self-attention.
+3. The approximation avoids calculating the full QK^T product, which would have O(n^2) complexity. 
+4. It uses a small number of landmarks (m) to approximate the full attention, where m is much smaller than n.
+5. The overall algorithm summarized in the figure shows operations that are linear in n.
+So in summary, by using the Nyström method to approximate self-attention, Nyströmformer achieves linear O(n) time and memory complexity, a significant improvement over the quadratic O(n^2) complexity of standard self-attention. This allows it to scale more efficiently to longer input sequences.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2439,7 +2449,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>The paper introducing the ByT5 model is titled "ByT5: Towards a token-free future with pre-trained byte-to-byte models".</t>
+          <t>The title of the paper introducing the ByT5 model is "ByT5: Towards a token-free future with pre-trained byte-to-byte models".</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2508,9 +2518,9 @@
         <is>
           <t>Based on the context provided, the EulerAncestralDiscreteScheduler uses ancestral sampling with Euler method steps. Specifically:
 - It is described as "A scheduler that uses ancestral sampling with Euler method steps."
-- It is noted to be a fast scheduler that can often generate good outputs in 20-30 steps.
+- It is mentioned to be a fast scheduler that can often generate good outputs in 20-30 steps.
 - The scheduler is based on the original k-diffusion implementation by Katherine Crowson.
-So in summary, the key sampling method used is ancestral sampling combined with Euler method steps for the diffusion process.</t>
+So in summary, the key sampling method used is ancestral sampling combined with Euler method steps for the discrete time steps.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2546,7 +2556,7 @@
           <t>Based on the context provided, the method used to load a checkpoint for a task using `AutoPipeline` is `from_pretrained()`.
 Specifically, the documentation states:
 "Based on the task, the `AutoPipeline` class automatically retrieves the relevant pipeline given the name or path to the pretrained weights with the `from_pretrained()` method."
-So to load a checkpoint for a specific task using AutoPipeline, you would call the `from_pretrained()` method, passing in the name or path to the pretrained weights.</t>
+So to load a checkpoint for a specific task using AutoPipeline, you would use the `from_pretrained()` method, passing in the name or path to the pretrained weights.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2579,16 +2589,13 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>According to the context, to make elements in a row have the same height in Gradio, you can use the `equal_height` parameter of the `style` method. Specifically, the context states:
-"To make each element in a row have the same height, use the `equal_height` parameter of the `style` method."
-An example is given:
+          <t>To ensure that elements in a row have the same height in Gradio, you can use the `equal_height` parameter when creating a `gr.Row()`.
+Specifically, you would set `equal_height=True` like this:
 ```python
-with gr.Blocks() as demo:
-    with gr.Row(equal_height=True):
-        textbox = gr.Textbox()
-        btn2 = gr.Button("Button2")
+with gr.Row(equal_height=True):
+    # Components in this row will have equal height
 ```
-So the parameter used to ensure elements in a row have the same height is `equal_height=True` when creating a `gr.Row()`.</t>
+This parameter makes all the elements within that row have the same height, which can be useful for creating a more uniform layout.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2621,9 +2628,9 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>According to the context, Hugging Face is sunsetting the Paid tier of the Inference API service and recommending their new Inference Endpoints solution instead for fast, enterprise-grade inference as a service. Specifically, the blog post states:
-"First of all, we are sunsetting the Paid tier of the Inference API service. The Inference API will still be available for everyone to use for free. But if you're looking for a fast, enterprise-grade inference as a service, we recommend checking out our brand new solution for this: Inference Endpoints."
-So Inference Endpoints is the new service replacing the paid tier of the Inference API.</t>
+          <t>According to the context, Hugging Face is sunsetting the Paid tier of their Inference API service. As a replacement for fast, enterprise-grade inference as a service, they are recommending their new solution called Inference Endpoints.
+Specifically, the blog post states:
+"First of all, we are sunsetting the Paid tier of the Inference API service. The Inference API will still be available for everyone to use for free. But if you're looking for a fast, enterprise-grade inference as a service, we recommend checking out our brand new solution for this: Inference Endpoints."</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2656,10 +2663,10 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>According to the information provided in the context, the WordPiece Model uses the special identifier "##" for continuing subwords.
+          <t>According to the context provided, the WordPiece Model uses the special identifier "##" for continuing subwords.
 Specifically, the context states:
 "WordPiece | Reverts the WordPiece Model. This model uses a special identifier `##` for continuing subwords, and so this Decoder helps with decoding these."
-So the special identifier used by WordPiece for continuing subwords is "##".</t>
+So the WordPiece tokenization algorithm uses "##" as a prefix to identify tokens that are part of a word (i.e. not starting a word), but continuing a word.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2695,7 +2702,7 @@
           <t>Based on the context provided, the `roberta-large-mnli` checkpoint performs text classification, specifically natural language inference.
 The relevant information is:
 "More precisely, it classifies if two sentences are logically linked across three labels (contradiction, neutral, entailment) — a task also called natural language inference."
-So the `roberta-large-mnli` model is trained for natural language inference, which is a type of text classification task where the model determines the logical relationship between two sentences.</t>
+So the `roberta-large-mnli` model is trained to classify the logical relationship between two sentences, which is a type of text classification task focused on natural language inference.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2731,8 +2738,8 @@
           <t>According to the context, the FNet model replaces the self-attention layer in a BERT model with a Fourier transform. Specifically:
 - FNet replaces the self-attention sublayer in a Transformer encoder with a standard, unparameterized Fourier Transform.
 - It returns only the real parts of the Fourier transform.
-- This replacement allows FNet to achieve 92-97% of the accuracy of BERT counterparts on the GLUE benchmark, while training 80% faster on GPUs and 70% faster on TPUs at standard 512 input lengths.
-The use of the Fourier transform instead of self-attention is the key innovation of the FNet model that allows it to be faster and more memory efficient than BERT while maintaining most of its accuracy.</t>
+- This Fourier transform "mixes" input tokens, along with nonlinearities in feed-forward layers, to model semantic relationships.
+The use of the Fourier transform instead of self-attention allows FNet to be significantly faster and more memory efficient than BERT, while still achieving 92-97% of BERT's accuracy on the GLUE benchmark.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2765,11 +2772,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Based on the context provided, the HuggingFace Team's software is distributed under the Apache License, Version 2.0. This is evident from the copyright notices at the top of several code snippets, which state:
+          <t>Based on the context provided, the HuggingFace Team's software is distributed under the Apache License, Version 2.0. This is evident from the copyright notices at the beginning of several sections, which state:
 "Licensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with the License. You may obtain a copy of the License at
 http://www.apache.org/licenses/LICENSE-2.0
 Unless required by applicable law or agreed to in writing, software distributed under the License is distributed on an "AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied. See the License for the specific language governing permissions and limitations under the License."
-This Apache 2.0 license allows users to use, modify, and distribute the software, subject to certain conditions specified in the license.</t>
+This Apache 2.0 license allows users to use, modify, and distribute the software, subject to certain conditions outlined in the license.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2802,7 +2809,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>According to the context, Hugging Face is SOC2 Type 2 certified. Specifically, the passage states:
+          <t>According to the context provided, Hugging Face is SOC2 Type 2 certified. Specifically, the passage states:
 "Hugging Face is also SOC2 Type 2 certified, meaning we provide security certification to our customers and actively monitor and patch any security weaknesses."</t>
         </is>
       </c>
@@ -2836,11 +2843,10 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Based on the testing strategy described in the context, the typical type of test that should accompany a bug fix in Gradio is:
-A dynamic code test (usually a unit or integration test)
-Specifically, the document states:
-"Every bug fix should be accompanied by a test that failed before the fix and passes afterwards. This test should _typically_ be a dynamic code test but it could be a linting rule or new type if that is appropriate."
-The strategy emphasizes that dynamic code tests (like unit or integration tests) should usually be added for bug fixes, though there may occasionally be exceptions where a static check like a linting rule or type check is more appropriate. The key point is that some form of test should be added that demonstrates the bug is fixed.</t>
+          <t>According to the test strategy document, the typical type of test that should accompany a bug fix in Gradio is a dynamic code test. Specifically, the document states:
+"Every bug fix should be accompanied by a test that failed before the fix and passes afterwards. This test should typically be a dynamic code test but it could be a linting rule or new type if that is appropriate."
+The document explains that dynamic code tests are usually unit or integration tests that test isolated pieces of code or relationships between parts of the codebase. These align closely with the objectives of identifying defects and preventing regressions.
+So in most cases, a bug fix should be accompanied by a new unit or integration test that demonstrates the bug is fixed. However, the document does note there can be exceptions, and in some cases a linting rule or type check could be appropriate instead. But a dynamic code test (unit/integration test) is described as the typical and preferred approach for testing bug fixes.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2910,10 +2916,10 @@
       <c r="C66" t="inlineStr">
         <is>
           <t>According to the context provided, you can access the logs of your Endpoints in Hugging Face Endpoints through the UI in the "Logs" tab of your Endpoint. Specifically:
-1. The Logs tab provides access to two types of logs:
+1. The "Logs" tab provides access to:
    - Build logs of your Image artifacts
    - Container Logs during inference
-2. The Container Logs are only available when your Endpoint is in the "Running" state.
+2. Container Logs are only available when your Endpoint is in the "Running" state.
 3. If your Endpoint creation is in the "Failed" state, you can check the Build Logs to see the reason for the failure (e.g. wrong version of a dependency).
 The context also includes images showing examples of the Build Logs and Container Logs interfaces in the Hugging Face Endpoints UI.</t>
         </is>
